--- a/CookieRecipes.xlsx
+++ b/CookieRecipes.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\argue\Documents\COP1047C – Python Programming – Spring 2022 Eduardo Salcedo\Group3\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\argue\Documents\COP1047C – Python Programming – Spring 2022 Eduardo Salcedo\Group\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{033584F0-2F32-46A9-8850-4EFB74C52104}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{367CD02D-C75D-4CEF-8221-A93D65515F5B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{3F5B9B50-DAFD-4BF0-8880-87709604E141}"/>
   </bookViews>
@@ -59,70 +59,12 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="31">
   <si>
-    <t>flour</t>
-  </si>
-  <si>
-    <t>baking
-Powder</t>
-  </si>
-  <si>
-    <t>baking
-Soda</t>
-  </si>
-  <si>
-    <t>brown
-Sugar (packed)</t>
-  </si>
-  <si>
-    <t>butter</t>
-  </si>
-  <si>
-    <t>chocolate
-Chips</t>
-  </si>
-  <si>
-    <t>chopped
-Pecans</t>
-  </si>
-  <si>
-    <t>egg
-Whites</t>
-  </si>
-  <si>
-    <t>eggs</t>
-  </si>
-  <si>
-    <t>oatmeal</t>
-  </si>
-  <si>
-    <t>peanut
-Butter</t>
-  </si>
-  <si>
-    <t>salt</t>
-  </si>
-  <si>
-    <t>vanilla
-Extract</t>
-  </si>
-  <si>
     <t>Sugar</t>
   </si>
   <si>
-    <t>prep
-Time</t>
-  </si>
-  <si>
-    <t>cook
-Time</t>
-  </si>
-  <si>
     <t>Yields</t>
   </si>
   <si>
-    <t>Directions</t>
-  </si>
-  <si>
     <t>Crisp Chocolate Oatmeal Cookies</t>
   </si>
   <si>
@@ -130,9 +72,6 @@
   </si>
   <si>
     <t>Thin and Crispy Chocolate Chip Cookies</t>
-  </si>
-  <si>
-    <t>cookies list</t>
   </si>
   <si>
     <t>Peanut Butter Cookies</t>
@@ -228,12 +167,63 @@
 	11.	Then eat or transfer to a cooling rack to cool completely.</t>
     </r>
   </si>
+  <si>
+    <t>All-Purpose Flour</t>
+  </si>
+  <si>
+    <t>Baking Powder</t>
+  </si>
+  <si>
+    <t>Baking Soda</t>
+  </si>
+  <si>
+    <t>Brown Sugar (packed)</t>
+  </si>
+  <si>
+    <t>Butter</t>
+  </si>
+  <si>
+    <t>Chocolate Chips</t>
+  </si>
+  <si>
+    <t>Chopped Pecans</t>
+  </si>
+  <si>
+    <t>Egg Whites</t>
+  </si>
+  <si>
+    <t>Eggs</t>
+  </si>
+  <si>
+    <t>Oatmeal</t>
+  </si>
+  <si>
+    <t>Peanut Butter</t>
+  </si>
+  <si>
+    <t>Salt</t>
+  </si>
+  <si>
+    <t>Vanilla Extract</t>
+  </si>
+  <si>
+    <t>Prep Time</t>
+  </si>
+  <si>
+    <t>Cook Time</t>
+  </si>
+  <si>
+    <t>Directions:</t>
+  </si>
+  <si>
+    <t>Cookies List</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -270,6 +260,14 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -484,9 +482,6 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
@@ -519,6 +514,9 @@
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -838,16 +836,16 @@
   <dimension ref="A1:U9"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B6" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="B6" sqref="B6"/>
+      <selection pane="bottomRight" activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="47" style="24" customWidth="1"/>
-    <col min="2" max="2" width="5.28515625" style="8" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="47" style="23" customWidth="1"/>
+    <col min="2" max="2" width="11.5703125" style="8" customWidth="1"/>
     <col min="3" max="3" width="7.85546875" style="8" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="11.140625" style="8" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="14.140625" style="8" bestFit="1" customWidth="1"/>
@@ -859,7 +857,7 @@
     <col min="11" max="11" width="8.5703125" style="8" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="7.28515625" style="8" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="4.42578125" style="8" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="7" style="8" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="8.140625" style="8" customWidth="1"/>
     <col min="15" max="15" width="6.28515625" style="8" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="9.140625" style="6"/>
     <col min="17" max="18" width="6.42578125" style="8" bestFit="1" customWidth="1"/>
@@ -870,92 +868,92 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:21" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="23" t="s">
+      <c r="A1" s="34" t="s">
+        <v>30</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="I1" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="B1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="E1" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="G1" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="H1" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="I1" s="2" t="s">
-        <v>7</v>
-      </c>
       <c r="J1" s="1" t="s">
-        <v>8</v>
+        <v>22</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>9</v>
+        <v>23</v>
       </c>
       <c r="L1" s="2" t="s">
-        <v>10</v>
+        <v>24</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>11</v>
+        <v>25</v>
       </c>
       <c r="N1" s="2" t="s">
-        <v>12</v>
+        <v>26</v>
       </c>
       <c r="O1" s="1" t="s">
-        <v>13</v>
+        <v>0</v>
       </c>
       <c r="P1" s="3"/>
       <c r="Q1" s="4" t="s">
-        <v>14</v>
+        <v>27</v>
       </c>
       <c r="R1" s="4" t="s">
-        <v>15</v>
+        <v>28</v>
       </c>
       <c r="S1" s="4" t="s">
-        <v>16</v>
+        <v>1</v>
       </c>
       <c r="T1" s="5"/>
-      <c r="U1" s="32" t="s">
-        <v>17</v>
+      <c r="U1" s="31" t="s">
+        <v>29</v>
       </c>
     </row>
     <row r="2" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A2" s="27"/>
-      <c r="B2" s="28"/>
-      <c r="C2" s="29"/>
-      <c r="D2" s="29"/>
-      <c r="E2" s="29"/>
-      <c r="F2" s="28"/>
-      <c r="G2" s="29"/>
-      <c r="H2" s="30"/>
-      <c r="I2" s="30"/>
-      <c r="J2" s="28"/>
-      <c r="K2" s="28"/>
-      <c r="L2" s="28"/>
-      <c r="M2" s="28"/>
-      <c r="N2" s="29"/>
-      <c r="O2" s="28"/>
-      <c r="P2" s="25"/>
-      <c r="Q2" s="31"/>
-      <c r="R2" s="31"/>
-      <c r="S2" s="31"/>
-      <c r="T2" s="26"/>
-      <c r="U2" s="33"/>
+      <c r="A2" s="26"/>
+      <c r="B2" s="27"/>
+      <c r="C2" s="28"/>
+      <c r="D2" s="28"/>
+      <c r="E2" s="28"/>
+      <c r="F2" s="27"/>
+      <c r="G2" s="28"/>
+      <c r="H2" s="29"/>
+      <c r="I2" s="29"/>
+      <c r="J2" s="27"/>
+      <c r="K2" s="27"/>
+      <c r="L2" s="27"/>
+      <c r="M2" s="27"/>
+      <c r="N2" s="28"/>
+      <c r="O2" s="27"/>
+      <c r="P2" s="24"/>
+      <c r="Q2" s="30"/>
+      <c r="R2" s="30"/>
+      <c r="S2" s="30"/>
+      <c r="T2" s="25"/>
+      <c r="U2" s="32"/>
     </row>
     <row r="3" spans="1:21" ht="90" x14ac:dyDescent="0.25">
       <c r="A3" s="12" t="s">
-        <v>18</v>
+        <v>2</v>
       </c>
       <c r="B3" s="13">
         <v>1</v>
@@ -1010,13 +1008,13 @@
         <v>24</v>
       </c>
       <c r="T3" s="15"/>
-      <c r="U3" s="34" t="s">
-        <v>25</v>
+      <c r="U3" s="33" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="4" spans="1:21" ht="120" x14ac:dyDescent="0.25">
       <c r="A4" s="12" t="s">
-        <v>24</v>
+        <v>7</v>
       </c>
       <c r="B4" s="13">
         <v>2</v>
@@ -1071,13 +1069,13 @@
         <v>36</v>
       </c>
       <c r="T4" s="15"/>
-      <c r="U4" s="34" t="s">
-        <v>26</v>
+      <c r="U4" s="33" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="5" spans="1:21" ht="195" x14ac:dyDescent="0.25">
       <c r="A5" s="7" t="s">
-        <v>19</v>
+        <v>3</v>
       </c>
       <c r="B5" s="13">
         <v>2</v>
@@ -1132,13 +1130,13 @@
         <v>34</v>
       </c>
       <c r="T5" s="11"/>
-      <c r="U5" s="34" t="s">
-        <v>30</v>
+      <c r="U5" s="33" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="6" spans="1:21" ht="135" x14ac:dyDescent="0.25">
       <c r="A6" s="12" t="s">
-        <v>23</v>
+        <v>6</v>
       </c>
       <c r="B6" s="13">
         <v>0</v>
@@ -1193,13 +1191,13 @@
         <v>36</v>
       </c>
       <c r="T6" s="15"/>
-      <c r="U6" s="34" t="s">
-        <v>27</v>
+      <c r="U6" s="33" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="7" spans="1:21" ht="90" x14ac:dyDescent="0.25">
       <c r="A7" s="12" t="s">
-        <v>22</v>
+        <v>5</v>
       </c>
       <c r="B7" s="13">
         <v>2.25</v>
@@ -1254,13 +1252,13 @@
         <v>54</v>
       </c>
       <c r="T7" s="15"/>
-      <c r="U7" s="34" t="s">
-        <v>28</v>
+      <c r="U7" s="33" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="8" spans="1:21" ht="120" x14ac:dyDescent="0.25">
       <c r="A8" s="17" t="s">
-        <v>20</v>
+        <v>4</v>
       </c>
       <c r="B8" s="18">
         <v>2</v>
@@ -1315,8 +1313,8 @@
         <v>60</v>
       </c>
       <c r="T8" s="21"/>
-      <c r="U8" s="34" t="s">
-        <v>29</v>
+      <c r="U8" s="33" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="9" spans="1:21" x14ac:dyDescent="0.25">
